--- a/results/A-02.xlsx
+++ b/results/A-02.xlsx
@@ -733,37 +733,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6208.83041158691</v>
+        <v>-6239.788187305794</v>
       </c>
       <c r="C2">
-        <v>13074.24020384323</v>
+        <v>13134.93975530513</v>
       </c>
       <c r="D2">
-        <v>-6208.830388125142</v>
+        <v>-6239.788183591361</v>
       </c>
       <c r="E2">
-        <v>-656.5794041312158</v>
+        <v>-655.3633844079632</v>
       </c>
       <c r="F2">
-        <v>61.64410758248306</v>
+        <v>61.4919723795432</v>
       </c>
       <c r="G2">
-        <v>45.00450986782329</v>
+        <v>45.00550696016097</v>
       </c>
       <c r="H2">
-        <v>62.17482176865451</v>
+        <v>62.01355099356948</v>
       </c>
       <c r="I2">
-        <v>44.65541123597603</v>
+        <v>44.66130091520654</v>
       </c>
       <c r="J2">
-        <v>61.64410758054203</v>
+        <v>61.49197237924233</v>
       </c>
       <c r="K2">
-        <v>45.00450986757699</v>
+        <v>45.00550696011436</v>
       </c>
       <c r="L2">
-        <v>53.86975773083844</v>
+        <v>53.91398312472256</v>
       </c>
       <c r="M2">
         <v>45</v>
@@ -772,22 +772,22 @@
         <v>65</v>
       </c>
       <c r="O2">
-        <v>46.32251399450968</v>
+        <v>46.2358003495641</v>
       </c>
       <c r="P2">
-        <v>53.86975769732163</v>
+        <v>53.91398311941623</v>
       </c>
       <c r="Q2">
         <v>45</v>
       </c>
       <c r="R2">
-        <v>5.330512121109788</v>
+        <v>5.406849132284513</v>
       </c>
       <c r="S2">
-        <v>-10.66102422261967</v>
+        <v>-10.81369826143384</v>
       </c>
       <c r="T2">
-        <v>5.330512101509884</v>
+        <v>5.406849129149325</v>
       </c>
       <c r="U2">
         <v>10</v>
@@ -799,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="X2">
-        <v>-58.35560002992658</v>
+        <v>-59.65924703725118</v>
       </c>
       <c r="Y2">
-        <v>-78.29270679782751</v>
+        <v>-77.89318276919613</v>
       </c>
       <c r="Z2">
-        <v>-58.35560002236156</v>
+        <v>-59.6592470372512</v>
       </c>
       <c r="AB2">
         <v>10</v>
@@ -817,91 +817,91 @@
         <v>10</v>
       </c>
       <c r="AE2">
-        <v>-5.330512121109788</v>
+        <v>-5.406849132284513</v>
       </c>
       <c r="AF2">
-        <v>5.330512101509884</v>
+        <v>5.406849129149325</v>
       </c>
       <c r="AG2">
-        <v>5.330512121109788</v>
+        <v>5.406849132284513</v>
       </c>
       <c r="AH2">
-        <v>-10.66102422261967</v>
+        <v>-10.81369826143384</v>
       </c>
       <c r="AI2">
-        <v>5.330512101509884</v>
+        <v>5.406849129149325</v>
       </c>
       <c r="AJ2">
-        <v>5.330512121109788</v>
+        <v>5.406849132284513</v>
       </c>
       <c r="AK2">
-        <v>-5.330512101509884</v>
+        <v>-5.406849129149325</v>
       </c>
       <c r="AL2">
-        <v>9.968553383950468</v>
+        <v>9.116967865972464</v>
       </c>
       <c r="AM2">
-        <v>-9.968553387732976</v>
+        <v>-9.116967865972462</v>
       </c>
       <c r="AN2">
-        <v>-58.35560002992658</v>
+        <v>-59.65924703725118</v>
       </c>
       <c r="AO2">
-        <v>-78.29270679782751</v>
+        <v>-77.89318276919613</v>
       </c>
       <c r="AP2">
-        <v>-58.35560002236156</v>
+        <v>-59.6592470372512</v>
       </c>
       <c r="AQ2">
-        <v>-9.968553383950468</v>
+        <v>-9.116967865972464</v>
       </c>
       <c r="AR2">
-        <v>9.968553387732976</v>
+        <v>9.116967865972462</v>
       </c>
       <c r="AS2">
-        <v>61.64410758248306</v>
+        <v>61.4919723795432</v>
       </c>
       <c r="AT2">
-        <v>61.64410758248306</v>
+        <v>61.4919723795432</v>
       </c>
       <c r="AU2">
-        <v>62.17482176865434</v>
+        <v>62.01355099356937</v>
       </c>
       <c r="AV2">
-        <v>62.17482176865434</v>
+        <v>62.01355099356937</v>
       </c>
       <c r="AW2">
-        <v>62.17482176865451</v>
+        <v>62.01355099356948</v>
       </c>
       <c r="AX2">
-        <v>61.64410758054203</v>
+        <v>61.49197237924233</v>
       </c>
       <c r="AY2">
-        <v>61.64410758054203</v>
+        <v>61.49197237924233</v>
       </c>
       <c r="AZ2">
-        <v>45.00450986782329</v>
+        <v>45.00550696016097</v>
       </c>
       <c r="BA2">
-        <v>45.00450986782329</v>
+        <v>45.00550696016097</v>
       </c>
       <c r="BB2">
-        <v>44.65541123597603</v>
+        <v>44.66130091520654</v>
       </c>
       <c r="BC2">
-        <v>44.65541123673603</v>
+        <v>44.66130091532875</v>
       </c>
       <c r="BD2">
-        <v>44.65541123521558</v>
+        <v>44.6613009150841</v>
       </c>
       <c r="BE2">
-        <v>45.00450986757699</v>
+        <v>45.00550696011436</v>
       </c>
       <c r="BF2">
-        <v>45.00450986757699</v>
+        <v>45.00550696011442</v>
       </c>
       <c r="BG2">
-        <v>53.86975773083844</v>
+        <v>53.91398312472256</v>
       </c>
       <c r="BH2">
         <v>45</v>
@@ -910,10 +910,10 @@
         <v>65</v>
       </c>
       <c r="BJ2">
-        <v>46.32251399450968</v>
+        <v>46.2358003495641</v>
       </c>
       <c r="BK2">
-        <v>53.86975769732163</v>
+        <v>53.91398311941623</v>
       </c>
       <c r="BL2">
         <v>45</v>
